--- a/Code/Results/Cases/Case_6_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_10/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.968188457679048</v>
+        <v>2.057825026222361</v>
       </c>
       <c r="C2">
-        <v>0.7244485385296286</v>
+        <v>0.4367222648045583</v>
       </c>
       <c r="D2">
-        <v>0.02214920328616188</v>
+        <v>0.1081131216497724</v>
       </c>
       <c r="E2">
-        <v>0.04415086606235086</v>
+        <v>0.07764740748272914</v>
       </c>
       <c r="F2">
-        <v>1.861431764481537</v>
+        <v>0.8152553025554852</v>
       </c>
       <c r="G2">
-        <v>0.0008037015539703662</v>
+        <v>0.0007958123795372791</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07566337629083364</v>
+        <v>0.07670587137606688</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7421661962849697</v>
+        <v>0.5854587565949885</v>
       </c>
       <c r="N2">
-        <v>0.8823912641842213</v>
+        <v>0.7149124887343348</v>
       </c>
       <c r="O2">
-        <v>1.278949049607391</v>
+        <v>1.94620713053223</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.574500908457594</v>
+        <v>1.78752232545628</v>
       </c>
       <c r="C3">
-        <v>0.6259650945270039</v>
+        <v>0.3816754886405818</v>
       </c>
       <c r="D3">
-        <v>0.02052410831999296</v>
+        <v>0.09908235693904999</v>
       </c>
       <c r="E3">
-        <v>0.04203033978233606</v>
+        <v>0.07316173573106255</v>
       </c>
       <c r="F3">
-        <v>1.721733397261374</v>
+        <v>0.7671189141242252</v>
       </c>
       <c r="G3">
-        <v>0.0008113361884745182</v>
+        <v>0.0008001925020533591</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07270750539529658</v>
+        <v>0.0740800156101642</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6478791967585309</v>
+        <v>0.5104961384000717</v>
       </c>
       <c r="N3">
-        <v>0.9368684397665596</v>
+        <v>0.744359153997376</v>
       </c>
       <c r="O3">
-        <v>1.182030559821385</v>
+        <v>1.839561989716429</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.336053314748824</v>
+        <v>1.622036118845102</v>
       </c>
       <c r="C4">
-        <v>0.566238690726891</v>
+        <v>0.347882079314985</v>
       </c>
       <c r="D4">
-        <v>0.01953755045187577</v>
+        <v>0.09361748149295579</v>
       </c>
       <c r="E4">
-        <v>0.04078257479817005</v>
+        <v>0.07050657176600339</v>
       </c>
       <c r="F4">
-        <v>1.639985214304986</v>
+        <v>0.739155790944011</v>
       </c>
       <c r="G4">
-        <v>0.0008161563004476692</v>
+        <v>0.0008029721290470726</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07102773934182949</v>
+        <v>0.07260564360951349</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.590867943465696</v>
+        <v>0.4647158344274374</v>
       </c>
       <c r="N4">
-        <v>0.9719279257110145</v>
+        <v>0.7635117000091256</v>
       </c>
       <c r="O4">
-        <v>1.125457151142072</v>
+        <v>1.778388960099221</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.239599474619297</v>
+        <v>1.554693002276622</v>
       </c>
       <c r="C5">
-        <v>0.5420588791089358</v>
+        <v>0.3341079951624977</v>
       </c>
       <c r="D5">
-        <v>0.01913805407436797</v>
+        <v>0.09140946687799811</v>
       </c>
       <c r="E5">
-        <v>0.04028693919181769</v>
+        <v>0.06944822426610386</v>
       </c>
       <c r="F5">
-        <v>1.607600756680171</v>
+        <v>0.7281379426088108</v>
       </c>
       <c r="G5">
-        <v>0.0008181551188238627</v>
+        <v>0.0008041279604273075</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07037500347445302</v>
+        <v>0.07203781011660126</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5678303638787199</v>
+        <v>0.4461134894503758</v>
       </c>
       <c r="N5">
-        <v>0.986603686727868</v>
+        <v>0.7715783126539648</v>
       </c>
       <c r="O5">
-        <v>1.103078682463462</v>
+        <v>1.754479979637807</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.223623578942409</v>
+        <v>1.543515638298572</v>
       </c>
       <c r="C6">
-        <v>0.5380526885583379</v>
+        <v>0.3318205153781548</v>
       </c>
       <c r="D6">
-        <v>0.01907186298824115</v>
+        <v>0.09104394046509867</v>
       </c>
       <c r="E6">
-        <v>0.0402053923856176</v>
+        <v>0.06927387958970499</v>
       </c>
       <c r="F6">
-        <v>1.602277089564424</v>
+        <v>0.7263305734374086</v>
       </c>
       <c r="G6">
-        <v>0.0008184891457413816</v>
+        <v>0.0008043212931934816</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07026847548909032</v>
+        <v>0.07194546610542929</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5640160266441967</v>
+        <v>0.4430275730400908</v>
       </c>
       <c r="N6">
-        <v>0.9890636152143308</v>
+        <v>0.7729333587831348</v>
       </c>
       <c r="O6">
-        <v>1.099401829646567</v>
+        <v>1.750569690418843</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.334749745286445</v>
+        <v>1.621127560567601</v>
       </c>
       <c r="C7">
-        <v>0.5659119836992943</v>
+        <v>0.3476963349169466</v>
       </c>
       <c r="D7">
-        <v>0.01953215281269749</v>
+        <v>0.09358762813227628</v>
       </c>
       <c r="E7">
-        <v>0.04077583951599095</v>
+        <v>0.07049220436213943</v>
       </c>
       <c r="F7">
-        <v>1.63954481282326</v>
+        <v>0.7390057022637748</v>
       </c>
       <c r="G7">
-        <v>0.000816183115590721</v>
+        <v>0.0008029876228603925</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07101881042242297</v>
+        <v>0.07259785422967369</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5905564949247832</v>
+        <v>0.4644647511086362</v>
       </c>
       <c r="N7">
-        <v>0.9721242946329909</v>
+        <v>0.7636194391857281</v>
       </c>
       <c r="O7">
-        <v>1.125152690535685</v>
+        <v>1.778062468901538</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.831696309006816</v>
+        <v>1.964508025748984</v>
       </c>
       <c r="C8">
-        <v>0.6903199229065535</v>
+        <v>0.4177382405020182</v>
       </c>
       <c r="D8">
-        <v>0.02158634466049136</v>
+        <v>0.1049819771612235</v>
       </c>
       <c r="E8">
-        <v>0.04340794720196861</v>
+        <v>0.07607941170970989</v>
       </c>
       <c r="F8">
-        <v>1.812375226740826</v>
+        <v>0.7983129488430762</v>
       </c>
       <c r="G8">
-        <v>0.0008063072973738789</v>
+        <v>0.0007973041846713339</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07461476210959361</v>
+        <v>0.07577080429528138</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7094563891112102</v>
+        <v>0.5595550041143014</v>
       </c>
       <c r="N8">
-        <v>0.9008306441180913</v>
+        <v>0.7248383418904325</v>
       </c>
       <c r="O8">
-        <v>1.244883315141436</v>
+        <v>1.908502490326043</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.837641904261602</v>
+        <v>2.643024488019194</v>
       </c>
       <c r="C9">
-        <v>0.9415580542629129</v>
+        <v>0.5553536101886607</v>
       </c>
       <c r="D9">
-        <v>0.02571938655579231</v>
+        <v>0.1280182349642445</v>
       </c>
       <c r="E9">
-        <v>0.04903971691830833</v>
+        <v>0.0878823653270544</v>
       </c>
       <c r="F9">
-        <v>2.187418696645679</v>
+        <v>0.9283656254009003</v>
       </c>
       <c r="G9">
-        <v>0.0007879280327154348</v>
+        <v>0.0007868543974649196</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08284777860679782</v>
+        <v>0.08316850239043561</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9509400263693522</v>
+        <v>0.7484104133005616</v>
       </c>
       <c r="N9">
-        <v>0.7745978938905083</v>
+        <v>0.6576673779720608</v>
       </c>
       <c r="O9">
-        <v>1.506055540724958</v>
+        <v>2.201527600521757</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.604300640879558</v>
+        <v>3.146701498686639</v>
       </c>
       <c r="C10">
-        <v>1.132730809337602</v>
+        <v>0.6569590341173921</v>
       </c>
       <c r="D10">
-        <v>0.02884491049027105</v>
+        <v>0.1454505123793126</v>
       </c>
       <c r="E10">
-        <v>0.05352551819967033</v>
+        <v>0.09716018183389252</v>
       </c>
       <c r="F10">
-        <v>2.491438266088124</v>
+        <v>1.033953933612068</v>
       </c>
       <c r="G10">
-        <v>0.0007749289700915243</v>
+        <v>0.0007795706785572822</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08978506704255551</v>
+        <v>0.08944090944793004</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.135494091920748</v>
+        <v>0.8892583572139046</v>
       </c>
       <c r="N10">
-        <v>0.691357082436987</v>
+        <v>0.6142760174783675</v>
       </c>
       <c r="O10">
-        <v>1.718811004567016</v>
+        <v>2.444051930728364</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.961207133220512</v>
+        <v>3.377452081285753</v>
       </c>
       <c r="C11">
-        <v>1.221681486000193</v>
+        <v>0.7033733419786188</v>
       </c>
       <c r="D11">
-        <v>0.03029281425260777</v>
+        <v>0.153511663283993</v>
       </c>
       <c r="E11">
-        <v>0.05565734486219043</v>
+        <v>0.1015340821169453</v>
       </c>
       <c r="F11">
-        <v>2.637568881655511</v>
+        <v>1.084565326745164</v>
       </c>
       <c r="G11">
-        <v>0.000769100283778843</v>
+        <v>0.000776335478235224</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09317660648473947</v>
+        <v>0.09250508667678758</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.221526491931996</v>
+        <v>0.9539441533220909</v>
       </c>
       <c r="N11">
-        <v>0.6558657339062819</v>
+        <v>0.5959607926117485</v>
       </c>
       <c r="O11">
-        <v>1.821350540829386</v>
+        <v>2.561386351553153</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.097733027477034</v>
+        <v>3.465108638044512</v>
       </c>
       <c r="C12">
-        <v>1.255702675414739</v>
+        <v>0.7209844244309522</v>
       </c>
       <c r="D12">
-        <v>0.03084550525563401</v>
+        <v>0.1565848788246029</v>
       </c>
       <c r="E12">
-        <v>0.05647918973533805</v>
+        <v>0.1032143416799016</v>
       </c>
       <c r="F12">
-        <v>2.694186915730228</v>
+        <v>1.104137038484922</v>
       </c>
       <c r="G12">
-        <v>0.0007669029790943103</v>
+        <v>0.0007751210087148405</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09449883968348871</v>
+        <v>0.09369832389800337</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.254453145279541</v>
+        <v>0.9785409691293125</v>
       </c>
       <c r="N12">
-        <v>0.6427979563713393</v>
+        <v>0.5892419128001123</v>
       </c>
       <c r="O12">
-        <v>1.861123463813897</v>
+        <v>2.606923861050802</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.068265192475053</v>
+        <v>3.446217225302803</v>
       </c>
       <c r="C13">
-        <v>1.248359693862767</v>
+        <v>0.7171898855099812</v>
       </c>
       <c r="D13">
-        <v>0.03072626619340824</v>
+        <v>0.1559220594905781</v>
       </c>
       <c r="E13">
-        <v>0.05630151786226989</v>
+        <v>0.1028513703366585</v>
       </c>
       <c r="F13">
-        <v>2.681933530341922</v>
+        <v>1.09990325716474</v>
       </c>
       <c r="G13">
-        <v>0.0007673758073104558</v>
+        <v>0.0007753821039225483</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09421231669721664</v>
+        <v>0.09343983245687326</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.247345472542548</v>
+        <v>0.9732388544229806</v>
       </c>
       <c r="N13">
-        <v>0.6455952642443563</v>
+        <v>0.5906791061404775</v>
       </c>
       <c r="O13">
-        <v>1.852513697523634</v>
+        <v>2.59706573971863</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.972410440107183</v>
+        <v>3.384657844765059</v>
       </c>
       <c r="C14">
-        <v>1.224473344249418</v>
+        <v>0.704821471727513</v>
       </c>
       <c r="D14">
-        <v>0.03033819218909883</v>
+        <v>0.1537640744089543</v>
       </c>
       <c r="E14">
-        <v>0.05572465764154444</v>
+        <v>0.1016718265131615</v>
       </c>
       <c r="F14">
-        <v>2.642200238502056</v>
+        <v>1.086167148081728</v>
       </c>
       <c r="G14">
-        <v>0.0007689193260517147</v>
+        <v>0.0007762353537616415</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09328460238891267</v>
+        <v>0.09260258016750811</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.224228108437856</v>
+        <v>0.955965628502895</v>
       </c>
       <c r="N14">
-        <v>0.6547829960135871</v>
+        <v>0.5954036117040573</v>
       </c>
       <c r="O14">
-        <v>1.824603061626433</v>
+        <v>2.565110007508821</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.913881852643158</v>
+        <v>3.346988254819905</v>
       </c>
       <c r="C15">
-        <v>1.209887873667128</v>
+        <v>0.6972502416143982</v>
       </c>
       <c r="D15">
-        <v>0.03010107980574972</v>
+        <v>0.1524449882453638</v>
       </c>
       <c r="E15">
-        <v>0.05537325730413656</v>
+        <v>0.100952500855005</v>
       </c>
       <c r="F15">
-        <v>2.618034284345583</v>
+        <v>1.077807392368172</v>
       </c>
       <c r="G15">
-        <v>0.0007698659918571327</v>
+        <v>0.000776759359319879</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09272141821467983</v>
+        <v>0.09209410348017144</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.210114946122957</v>
+        <v>0.945398943827108</v>
       </c>
       <c r="N15">
-        <v>0.6604601642771257</v>
+        <v>0.5983260983777754</v>
       </c>
       <c r="O15">
-        <v>1.807633530504319</v>
+        <v>2.545683195706147</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.581156610161713</v>
+        <v>3.131657675185068</v>
       </c>
       <c r="C16">
-        <v>1.126961922542591</v>
+        <v>0.653930241937843</v>
       </c>
       <c r="D16">
-        <v>0.02875086488236889</v>
+        <v>0.1449264846569065</v>
       </c>
       <c r="E16">
-        <v>0.05338815412304498</v>
+        <v>0.09687758299366678</v>
       </c>
       <c r="F16">
-        <v>2.482058728436172</v>
+        <v>1.030701220800637</v>
       </c>
       <c r="G16">
-        <v>0.0007753114029494452</v>
+        <v>0.0007797836286540876</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08956849949640855</v>
+        <v>0.08924511708045202</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.129917561050618</v>
+        <v>0.8850444609571113</v>
       </c>
       <c r="N16">
-        <v>0.6937268424061642</v>
+        <v>0.6155026130092764</v>
       </c>
       <c r="O16">
-        <v>1.712235205320042</v>
+        <v>2.436533064367836</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.379263512931175</v>
+        <v>3.000004874708566</v>
       </c>
       <c r="C17">
-        <v>1.076633031661288</v>
+        <v>0.6274092875859481</v>
       </c>
       <c r="D17">
-        <v>0.02792966595797353</v>
+        <v>0.1403489331207624</v>
       </c>
       <c r="E17">
-        <v>0.05219470144745664</v>
+        <v>0.0944183466943187</v>
       </c>
       <c r="F17">
-        <v>2.400752616967765</v>
+        <v>1.002487979831656</v>
       </c>
       <c r="G17">
-        <v>0.0007786721262241563</v>
+        <v>0.0007816585248541642</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08769738582461883</v>
+        <v>0.08755313212574833</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.081284478091007</v>
+        <v>0.848185312965029</v>
       </c>
       <c r="N17">
-        <v>0.7147637723432112</v>
+        <v>0.6264127455952888</v>
       </c>
       <c r="O17">
-        <v>1.655263695574675</v>
+        <v>2.371435290828202</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.263893634540636</v>
+        <v>2.924431907544999</v>
       </c>
       <c r="C18">
-        <v>1.047868572466371</v>
+        <v>0.6121728832015094</v>
       </c>
       <c r="D18">
-        <v>0.02745974526095196</v>
+        <v>0.1377282742106729</v>
       </c>
       <c r="E18">
-        <v>0.05151674827843067</v>
+        <v>0.09301817344828933</v>
       </c>
       <c r="F18">
-        <v>2.354714198127496</v>
+        <v>0.986500916937942</v>
       </c>
       <c r="G18">
-        <v>0.0007806132443450677</v>
+        <v>0.0007827443154045368</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08664309119554048</v>
+        <v>0.08659962555910994</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.053504314072164</v>
+        <v>0.8270417676675663</v>
       </c>
       <c r="N18">
-        <v>0.7270852043400353</v>
+        <v>0.6328212066425678</v>
       </c>
       <c r="O18">
-        <v>1.623029269666091</v>
+        <v>2.334646210552563</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.224955077496759</v>
+        <v>2.898868761183508</v>
       </c>
       <c r="C19">
-        <v>1.038159435927923</v>
+        <v>0.6070169382844881</v>
       </c>
       <c r="D19">
-        <v>0.02730103406003437</v>
+        <v>0.1368430122079189</v>
       </c>
       <c r="E19">
-        <v>0.05128862143567936</v>
+        <v>0.09254650162052158</v>
       </c>
       <c r="F19">
-        <v>2.339246754036466</v>
+        <v>0.981128232154262</v>
       </c>
       <c r="G19">
-        <v>0.0007812719332818416</v>
+        <v>0.0007831132342992995</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08628977472784527</v>
+        <v>0.08628008881438376</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.044130048821494</v>
+        <v>0.8198922983696093</v>
       </c>
       <c r="N19">
-        <v>0.7312942117974828</v>
+        <v>0.6350135349869461</v>
       </c>
       <c r="O19">
-        <v>1.612203673887052</v>
+        <v>2.322299433812645</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.400675992220272</v>
+        <v>3.014003693008476</v>
       </c>
       <c r="C20">
-        <v>1.081971291668367</v>
+        <v>0.6302306017636283</v>
       </c>
       <c r="D20">
-        <v>0.02801683003368538</v>
+        <v>0.1408349433211953</v>
       </c>
       <c r="E20">
-        <v>0.05232085792529695</v>
+        <v>0.09467864176360052</v>
       </c>
       <c r="F20">
-        <v>2.409331512784078</v>
+        <v>1.005466193832518</v>
       </c>
       <c r="G20">
-        <v>0.0007783135468675262</v>
+        <v>0.0007814581774308116</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08789427267449668</v>
+        <v>0.08773119207175739</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.086441312416973</v>
+        <v>0.8521030527854592</v>
       </c>
       <c r="N20">
-        <v>0.7125012171917362</v>
+        <v>0.6252374694202345</v>
       </c>
       <c r="O20">
-        <v>1.661272340958632</v>
+        <v>2.378296748080572</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.000526311103386</v>
+        <v>3.402731471108552</v>
       </c>
       <c r="C21">
-        <v>1.23147973712878</v>
+        <v>0.7084533647277453</v>
       </c>
       <c r="D21">
-        <v>0.03045205380843896</v>
+        <v>0.1543973521428796</v>
       </c>
       <c r="E21">
-        <v>0.05589368767592973</v>
+        <v>0.102017621029578</v>
       </c>
       <c r="F21">
-        <v>2.653834754425048</v>
+        <v>1.090190453975723</v>
       </c>
       <c r="G21">
-        <v>0.0007684657081903238</v>
+        <v>0.0007759844501762447</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09355603058978801</v>
+        <v>0.09284758701116402</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.231008370132002</v>
+        <v>0.9610363202385983</v>
       </c>
       <c r="N21">
-        <v>0.6520739781625622</v>
+        <v>0.5940099290462015</v>
       </c>
       <c r="O21">
-        <v>1.832774494262026</v>
+        <v>2.574465361634395</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.400678814618061</v>
+        <v>3.65842046613767</v>
       </c>
       <c r="C22">
-        <v>1.331188441887548</v>
+        <v>0.7597842133572783</v>
       </c>
       <c r="D22">
-        <v>0.03206964369949716</v>
+        <v>0.1633823560792393</v>
       </c>
       <c r="E22">
-        <v>0.0583144546588592</v>
+        <v>0.1069547036514464</v>
       </c>
       <c r="F22">
-        <v>2.821188063761355</v>
+        <v>1.147949200474088</v>
       </c>
       <c r="G22">
-        <v>0.0007620859759361887</v>
+        <v>0.0007724686997012183</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09747964099385342</v>
+        <v>0.09638455472549623</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.327547378078947</v>
+        <v>1.032830415122234</v>
       </c>
       <c r="N22">
-        <v>0.6147667222585511</v>
+        <v>0.5748702036708693</v>
       </c>
       <c r="O22">
-        <v>1.950424513448979</v>
+        <v>2.70916754242424</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.186294196328163</v>
+        <v>3.521790030237696</v>
       </c>
       <c r="C23">
-        <v>1.277770406449406</v>
+        <v>0.7323664270095378</v>
       </c>
       <c r="D23">
-        <v>0.03120368224870518</v>
+        <v>0.1585751791469221</v>
       </c>
       <c r="E23">
-        <v>0.05701407752951937</v>
+        <v>0.1043061552053182</v>
       </c>
       <c r="F23">
-        <v>2.731120532350673</v>
+        <v>1.1168914631955</v>
       </c>
       <c r="G23">
-        <v>0.0007654866243424059</v>
+        <v>0.0007743396956990132</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09536363952135218</v>
+        <v>0.09447823374789266</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.27581666784863</v>
+        <v>0.9944529111292226</v>
       </c>
       <c r="N23">
-        <v>0.6344672537708362</v>
+        <v>0.5849651108595495</v>
       </c>
       <c r="O23">
-        <v>1.887081347110325</v>
+        <v>2.636645920081321</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.390993241296314</v>
+        <v>3.007674469176038</v>
       </c>
       <c r="C24">
-        <v>1.079557337748668</v>
+        <v>0.6289550523767957</v>
       </c>
       <c r="D24">
-        <v>0.02797741635824025</v>
+        <v>0.1406151838663874</v>
       </c>
       <c r="E24">
-        <v>0.05226379721450591</v>
+        <v>0.09456091991210513</v>
       </c>
       <c r="F24">
-        <v>2.405450807874587</v>
+        <v>1.004119019860553</v>
       </c>
       <c r="G24">
-        <v>0.0007784756323832208</v>
+        <v>0.0007815487298845382</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08780519366764139</v>
+        <v>0.08765063144071661</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.084109351716016</v>
+        <v>0.8503316963856022</v>
       </c>
       <c r="N24">
-        <v>0.7135234135129025</v>
+        <v>0.6257683888136043</v>
       </c>
       <c r="O24">
-        <v>1.658554223585881</v>
+        <v>2.375192708003539</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.56132483177015</v>
+        <v>2.458715738091939</v>
       </c>
       <c r="C25">
-        <v>0.8726044544471279</v>
+        <v>0.5180634434922524</v>
       </c>
       <c r="D25">
-        <v>0.02458768737352557</v>
+        <v>0.1217037355232691</v>
       </c>
       <c r="E25">
-        <v>0.04745985900555816</v>
+        <v>0.08458978617406387</v>
       </c>
       <c r="F25">
-        <v>2.081466930762616</v>
+        <v>0.8915466773655254</v>
       </c>
       <c r="G25">
-        <v>0.0007928039320550056</v>
+        <v>0.0007896099034454485</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08047772837933564</v>
+        <v>0.0810294124981894</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8845214596714257</v>
+        <v>0.697001263991929</v>
       </c>
       <c r="N25">
-        <v>0.8071754488625018</v>
+        <v>0.6748342506780673</v>
       </c>
       <c r="O25">
-        <v>1.432113372358899</v>
+        <v>2.117820660686903</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.057825026222361</v>
+        <v>1.725919481704324</v>
       </c>
       <c r="C2">
-        <v>0.4367222648045583</v>
+        <v>0.4752737293524945</v>
       </c>
       <c r="D2">
-        <v>0.1081131216497724</v>
+        <v>0.1510169648101254</v>
       </c>
       <c r="E2">
-        <v>0.07764740748272914</v>
+        <v>0.09016912606985983</v>
       </c>
       <c r="F2">
-        <v>0.8152553025554852</v>
+        <v>0.5699831807898121</v>
       </c>
       <c r="G2">
-        <v>0.0007958123795372791</v>
+        <v>0.3216791457736505</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002760420065184732</v>
       </c>
       <c r="J2">
-        <v>0.07670587137606688</v>
+        <v>0.2678106117715799</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.202709525415905</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.07651319146040336</v>
       </c>
       <c r="M2">
-        <v>0.5854587565949885</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7149124887343348</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.94620713053223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5478537703337452</v>
+      </c>
+      <c r="P2">
+        <v>0.8247665304621208</v>
+      </c>
+      <c r="Q2">
+        <v>1.192029053222186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.78752232545628</v>
+        <v>1.503741265680162</v>
       </c>
       <c r="C3">
-        <v>0.3816754886405818</v>
+        <v>0.4191686906947325</v>
       </c>
       <c r="D3">
-        <v>0.09908235693904999</v>
+        <v>0.1384646181367799</v>
       </c>
       <c r="E3">
-        <v>0.07316173573106255</v>
+        <v>0.08493132807753057</v>
       </c>
       <c r="F3">
-        <v>0.7671189141242252</v>
+        <v>0.5403292959516079</v>
       </c>
       <c r="G3">
-        <v>0.0008001925020533591</v>
+        <v>0.3018489801349418</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001729295590019664</v>
       </c>
       <c r="J3">
-        <v>0.0740800156101642</v>
+        <v>0.2631704472051695</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2058940058802552</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.07411353025307221</v>
       </c>
       <c r="M3">
-        <v>0.5104961384000717</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.744359153997376</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.839561989716429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4778271236514442</v>
+      </c>
+      <c r="P3">
+        <v>0.8260510391108156</v>
+      </c>
+      <c r="Q3">
+        <v>1.13996523316132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.622036118845102</v>
+        <v>1.366722373508992</v>
       </c>
       <c r="C4">
-        <v>0.347882079314985</v>
+        <v>0.3849188910445775</v>
       </c>
       <c r="D4">
-        <v>0.09361748149295579</v>
+        <v>0.1309168725114205</v>
       </c>
       <c r="E4">
-        <v>0.07050657176600339</v>
+        <v>0.08183939212500846</v>
       </c>
       <c r="F4">
-        <v>0.739155790944011</v>
+        <v>0.5228558491536504</v>
       </c>
       <c r="G4">
-        <v>0.0008029721290470726</v>
+        <v>0.2901323134440261</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001246033799708446</v>
       </c>
       <c r="J4">
-        <v>0.07260564360951349</v>
+        <v>0.2606407006078726</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2081387517563371</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.07277112952895237</v>
       </c>
       <c r="M4">
-        <v>0.4647158344274374</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7635117000091256</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.778388960099221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4349084520123156</v>
+      </c>
+      <c r="P4">
+        <v>0.8276488887554692</v>
+      </c>
+      <c r="Q4">
+        <v>1.109630981723456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.554693002276622</v>
+        <v>1.309869760400744</v>
       </c>
       <c r="C5">
-        <v>0.3341079951624977</v>
+        <v>0.3716454394501341</v>
       </c>
       <c r="D5">
-        <v>0.09140946687799811</v>
+        <v>0.1279414501084659</v>
       </c>
       <c r="E5">
-        <v>0.06944822426610386</v>
+        <v>0.08061924647381602</v>
       </c>
       <c r="F5">
-        <v>0.7281379426088108</v>
+        <v>0.5155717071617545</v>
       </c>
       <c r="G5">
-        <v>0.0008041279604273075</v>
+        <v>0.2851626582417737</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001144298183432646</v>
       </c>
       <c r="J5">
-        <v>0.07203781011660126</v>
+        <v>0.2595311726364642</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2089137763813493</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.07224446922478478</v>
       </c>
       <c r="M5">
-        <v>0.4461134894503758</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7715783126539648</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.754479979637807</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4174750621616283</v>
+      </c>
+      <c r="P5">
+        <v>0.828834672378612</v>
+      </c>
+      <c r="Q5">
+        <v>1.096688999897182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.543515638298572</v>
+        <v>1.29936450477004</v>
       </c>
       <c r="C6">
-        <v>0.3318205153781548</v>
+        <v>0.3702278620550885</v>
       </c>
       <c r="D6">
-        <v>0.09104394046509867</v>
+        <v>0.1275256445282764</v>
       </c>
       <c r="E6">
-        <v>0.06927387958970499</v>
+        <v>0.08043063453458643</v>
       </c>
       <c r="F6">
-        <v>0.7263305734374086</v>
+        <v>0.5139574504978057</v>
       </c>
       <c r="G6">
-        <v>0.0008043212931934816</v>
+        <v>0.2839722678119543</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001209946633556669</v>
       </c>
       <c r="J6">
-        <v>0.07194546610542929</v>
+        <v>0.2591606867584417</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2087902522804868</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.07214521566116261</v>
       </c>
       <c r="M6">
-        <v>0.4430275730400908</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7729333587831348</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.750569690418843</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4146309214011765</v>
+      </c>
+      <c r="P6">
+        <v>0.8294574613720087</v>
+      </c>
+      <c r="Q6">
+        <v>1.093375452271104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.621127560567601</v>
+        <v>1.363063201483328</v>
       </c>
       <c r="C7">
-        <v>0.3476963349169466</v>
+        <v>0.3868859004159617</v>
       </c>
       <c r="D7">
-        <v>0.09358762813227628</v>
+        <v>0.1310842752336896</v>
       </c>
       <c r="E7">
-        <v>0.07049220436213943</v>
+        <v>0.08185624648247725</v>
       </c>
       <c r="F7">
-        <v>0.7390057022637748</v>
+        <v>0.5216225899007867</v>
       </c>
       <c r="G7">
-        <v>0.0008029876228603925</v>
+        <v>0.2890490729519755</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001449451852155725</v>
       </c>
       <c r="J7">
-        <v>0.07259785422967369</v>
+        <v>0.2601043462893244</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2074492020744181</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0727266433528051</v>
       </c>
       <c r="M7">
-        <v>0.4644647511086362</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7636194391857281</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.778062468901538</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.434809170134173</v>
+      </c>
+      <c r="P7">
+        <v>0.8288081243937384</v>
+      </c>
+      <c r="Q7">
+        <v>1.10620975108688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.964508025748984</v>
+        <v>1.645566116322726</v>
       </c>
       <c r="C8">
-        <v>0.4177382405020182</v>
+        <v>0.4587505868485664</v>
       </c>
       <c r="D8">
-        <v>0.1049819771612235</v>
+        <v>0.1469302695274166</v>
       </c>
       <c r="E8">
-        <v>0.07607941170970989</v>
+        <v>0.08838095662413892</v>
       </c>
       <c r="F8">
-        <v>0.7983129488430762</v>
+        <v>0.5580975739842913</v>
       </c>
       <c r="G8">
-        <v>0.0007973041846713339</v>
+        <v>0.3133952298373259</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002616496816109759</v>
       </c>
       <c r="J8">
-        <v>0.07577080429528138</v>
+        <v>0.2654541055526991</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2028244610889374</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07560872821082398</v>
       </c>
       <c r="M8">
-        <v>0.5595550041143014</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7248383418904325</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.908502490326043</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5238687377450901</v>
+      </c>
+      <c r="P8">
+        <v>0.8266094065663694</v>
+      </c>
+      <c r="Q8">
+        <v>1.169428001830568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.643024488019194</v>
+        <v>2.200211149163977</v>
       </c>
       <c r="C9">
-        <v>0.5553536101886607</v>
+        <v>0.5976441085180113</v>
       </c>
       <c r="D9">
-        <v>0.1280182349642445</v>
+        <v>0.1789823887537096</v>
       </c>
       <c r="E9">
-        <v>0.0878823653270544</v>
+        <v>0.1021642504703024</v>
       </c>
       <c r="F9">
-        <v>0.9283656254009003</v>
+        <v>0.637907312734356</v>
       </c>
       <c r="G9">
-        <v>0.0007868543974649196</v>
+        <v>0.3669213259511679</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.005895248744203663</v>
       </c>
       <c r="J9">
-        <v>0.08316850239043561</v>
+        <v>0.2795475280499744</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.197416809750063</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.08243192778647312</v>
       </c>
       <c r="M9">
-        <v>0.7484104133005616</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6576673779720608</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.201527600521757</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.6990907143573608</v>
+      </c>
+      <c r="P9">
+        <v>0.8268531304968505</v>
+      </c>
+      <c r="Q9">
+        <v>1.313133767099885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.146701498686639</v>
+        <v>2.603734042570807</v>
       </c>
       <c r="C10">
-        <v>0.6569590341173921</v>
+        <v>0.7023331767670129</v>
       </c>
       <c r="D10">
-        <v>0.1454505123793126</v>
+        <v>0.203585676615063</v>
       </c>
       <c r="E10">
-        <v>0.09716018183389252</v>
+        <v>0.1130404211927925</v>
       </c>
       <c r="F10">
-        <v>1.033953933612068</v>
+        <v>0.7004106981487368</v>
       </c>
       <c r="G10">
-        <v>0.0007795706785572822</v>
+        <v>0.4086204939230527</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.009353204642490454</v>
       </c>
       <c r="J10">
-        <v>0.08944090944793004</v>
+        <v>0.2914767797698374</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1947519795459769</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08819675855438192</v>
       </c>
       <c r="M10">
-        <v>0.8892583572139046</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6142760174783675</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.444051930728364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8286964463824802</v>
+      </c>
+      <c r="P10">
+        <v>0.8321770460148628</v>
+      </c>
+      <c r="Q10">
+        <v>1.42700209454236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.377452081285753</v>
+        <v>2.781922904642386</v>
       </c>
       <c r="C11">
-        <v>0.7033733419786188</v>
+        <v>0.7540418400028557</v>
       </c>
       <c r="D11">
-        <v>0.153511663283993</v>
+        <v>0.2153580829472048</v>
       </c>
       <c r="E11">
-        <v>0.1015340821169453</v>
+        <v>0.1182246803410365</v>
       </c>
       <c r="F11">
-        <v>1.084565326745164</v>
+        <v>0.7280888723082768</v>
       </c>
       <c r="G11">
-        <v>0.000776335478235224</v>
+        <v>0.4266531006592658</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01149530436046753</v>
       </c>
       <c r="J11">
-        <v>0.09250508667678758</v>
+        <v>0.2965026119533292</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1928220009980741</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09094923926823384</v>
       </c>
       <c r="M11">
-        <v>0.9539441533220909</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5959607926117485</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.561386351553153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.8881201676007393</v>
+      </c>
+      <c r="P11">
+        <v>0.8378277592162533</v>
+      </c>
+      <c r="Q11">
+        <v>1.475967725146234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.465108638044512</v>
+        <v>2.851943094134299</v>
       </c>
       <c r="C12">
-        <v>0.7209844244309522</v>
+        <v>0.771762385286479</v>
       </c>
       <c r="D12">
-        <v>0.1565848788246029</v>
+        <v>0.2196700467194148</v>
       </c>
       <c r="E12">
-        <v>0.1032143416799016</v>
+        <v>0.1201863261790805</v>
       </c>
       <c r="F12">
-        <v>1.104137038484922</v>
+        <v>0.7397327980082054</v>
       </c>
       <c r="G12">
-        <v>0.0007751210087148405</v>
+        <v>0.4344852171929858</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01217356232413103</v>
       </c>
       <c r="J12">
-        <v>0.09369832389800337</v>
+        <v>0.2989245346992249</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1927476800081465</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09205261842657819</v>
       </c>
       <c r="M12">
-        <v>0.9785409691293125</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5892419128001123</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.606923861050802</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.9105494738740774</v>
+      </c>
+      <c r="P12">
+        <v>0.8390058339090558</v>
+      </c>
+      <c r="Q12">
+        <v>1.497722502009623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.446217225302803</v>
+        <v>2.837391048239283</v>
       </c>
       <c r="C13">
-        <v>0.7171898855099812</v>
+        <v>0.7675524356155847</v>
       </c>
       <c r="D13">
-        <v>0.1559220594905781</v>
+        <v>0.2187029516727961</v>
       </c>
       <c r="E13">
-        <v>0.1028513703366585</v>
+        <v>0.1197566450056584</v>
       </c>
       <c r="F13">
-        <v>1.09990325716474</v>
+        <v>0.7374165551514835</v>
       </c>
       <c r="G13">
-        <v>0.0007753821039225483</v>
+        <v>0.4329718728335905</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01198856315316466</v>
       </c>
       <c r="J13">
-        <v>0.09343983245687326</v>
+        <v>0.2984903741893703</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1928802994290386</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09182004827610513</v>
       </c>
       <c r="M13">
-        <v>0.9732388544229806</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5906791061404775</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.59706573971863</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.9056938938739165</v>
+      </c>
+      <c r="P13">
+        <v>0.8385154681857045</v>
+      </c>
+      <c r="Q13">
+        <v>1.493588075445444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.384657844765059</v>
+        <v>2.787907715209769</v>
       </c>
       <c r="C14">
-        <v>0.704821471727513</v>
+        <v>0.7553325408124749</v>
       </c>
       <c r="D14">
-        <v>0.1537640744089543</v>
+        <v>0.2156964638035532</v>
       </c>
       <c r="E14">
-        <v>0.1016718265131615</v>
+        <v>0.1183829751955194</v>
       </c>
       <c r="F14">
-        <v>1.086167148081728</v>
+        <v>0.7291279704702305</v>
       </c>
       <c r="G14">
-        <v>0.0007762353537616415</v>
+        <v>0.4273709910529959</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.0115342208528828</v>
       </c>
       <c r="J14">
-        <v>0.09260258016750811</v>
+        <v>0.2967389392574376</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1928653627679928</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09104213501526459</v>
       </c>
       <c r="M14">
-        <v>0.955965628502895</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5954036117040573</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.565110007508821</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.8899547540496471</v>
+      </c>
+      <c r="P14">
+        <v>0.837824184865454</v>
+      </c>
+      <c r="Q14">
+        <v>1.477991059829179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.346988254819905</v>
+        <v>2.756557231783518</v>
       </c>
       <c r="C15">
-        <v>0.6972502416143982</v>
+        <v>0.7486250468712399</v>
       </c>
       <c r="D15">
-        <v>0.1524449882453638</v>
+        <v>0.2139321464151323</v>
       </c>
       <c r="E15">
-        <v>0.100952500855005</v>
+        <v>0.1175569390783657</v>
       </c>
       <c r="F15">
-        <v>1.077807392368172</v>
+        <v>0.7236814258579614</v>
       </c>
       <c r="G15">
-        <v>0.000776759359319879</v>
+        <v>0.423603915982298</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01133846501529234</v>
       </c>
       <c r="J15">
-        <v>0.09209410348017144</v>
+        <v>0.295496870801145</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1926292624091559</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09055690728204979</v>
       </c>
       <c r="M15">
-        <v>0.945398943827108</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5983260983777754</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.545683195706147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.8803652529864365</v>
+      </c>
+      <c r="P15">
+        <v>0.8378719230024387</v>
+      </c>
+      <c r="Q15">
+        <v>1.467369729130127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.131657675185068</v>
+        <v>2.583393482647011</v>
       </c>
       <c r="C16">
-        <v>0.653930241937843</v>
+        <v>0.7054127644557013</v>
       </c>
       <c r="D16">
-        <v>0.1449264846569065</v>
+        <v>0.2034307753095987</v>
       </c>
       <c r="E16">
-        <v>0.09687758299366678</v>
+        <v>0.1128037581529284</v>
       </c>
       <c r="F16">
-        <v>1.030701220800637</v>
+        <v>0.6953184359762048</v>
       </c>
       <c r="G16">
-        <v>0.0007797836286540876</v>
+        <v>0.4044929030291229</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.009817971727324348</v>
       </c>
       <c r="J16">
-        <v>0.08924511708045202</v>
+        <v>0.2896537051957182</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.19289895070483</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08791454228547479</v>
       </c>
       <c r="M16">
-        <v>0.8850444609571113</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6155026130092764</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.436533064367836</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.8252032528162943</v>
+      </c>
+      <c r="P16">
+        <v>0.8355824562902967</v>
+      </c>
+      <c r="Q16">
+        <v>1.414419966081624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.000004874708566</v>
+        <v>2.477093494404016</v>
       </c>
       <c r="C17">
-        <v>0.6274092875859481</v>
+        <v>0.6789907745238111</v>
       </c>
       <c r="D17">
-        <v>0.1403489331207624</v>
+        <v>0.1970481443828191</v>
       </c>
       <c r="E17">
-        <v>0.0944183466943187</v>
+        <v>0.1099351003288973</v>
       </c>
       <c r="F17">
-        <v>1.002487979831656</v>
+        <v>0.6782265075851655</v>
       </c>
       <c r="G17">
-        <v>0.0007816585248541642</v>
+        <v>0.3929774480386783</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.008956433533602315</v>
       </c>
       <c r="J17">
-        <v>0.08755313212574833</v>
+        <v>0.2861927525972447</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1931777312437006</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08634393559082554</v>
       </c>
       <c r="M17">
-        <v>0.848185312965029</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6264127455952888</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.371435290828202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.7914299027141354</v>
+      </c>
+      <c r="P17">
+        <v>0.8344379627067013</v>
+      </c>
+      <c r="Q17">
+        <v>1.382635707801484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.924431907544999</v>
+        <v>2.418544456381369</v>
       </c>
       <c r="C18">
-        <v>0.6121728832015094</v>
+        <v>0.6618697010295875</v>
       </c>
       <c r="D18">
-        <v>0.1377282742106729</v>
+        <v>0.1932134938435865</v>
       </c>
       <c r="E18">
-        <v>0.09301817344828933</v>
+        <v>0.1082721162214142</v>
       </c>
       <c r="F18">
-        <v>0.986500916937942</v>
+        <v>0.6695045261663566</v>
       </c>
       <c r="G18">
-        <v>0.0007827443154045368</v>
+        <v>0.3873232272998877</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.008265934676047415</v>
       </c>
       <c r="J18">
-        <v>0.08659962555910994</v>
+        <v>0.2847011593545119</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1939786511223431</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08549069815102683</v>
       </c>
       <c r="M18">
-        <v>0.8270417676675663</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6328212066425678</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.334646210552563</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.7719099341466418</v>
+      </c>
+      <c r="P18">
+        <v>0.8327439260543912</v>
+      </c>
+      <c r="Q18">
+        <v>1.367453104442518</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.898868761183508</v>
+        <v>2.396694491066114</v>
       </c>
       <c r="C19">
-        <v>0.6070169382844881</v>
+        <v>0.6575843005898605</v>
       </c>
       <c r="D19">
-        <v>0.1368430122079189</v>
+        <v>0.1920611316622995</v>
       </c>
       <c r="E19">
-        <v>0.09254650162052158</v>
+        <v>0.107734856652808</v>
       </c>
       <c r="F19">
-        <v>0.981128232154262</v>
+        <v>0.6657983952145514</v>
       </c>
       <c r="G19">
-        <v>0.0007831132342992995</v>
+        <v>0.384730101478425</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.008202666418837268</v>
       </c>
       <c r="J19">
-        <v>0.08628008881438376</v>
+        <v>0.2838525631973567</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1937935507635906</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08517995685631519</v>
       </c>
       <c r="M19">
-        <v>0.8198922983696093</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350135349869461</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.322299433812645</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.7653947900706939</v>
+      </c>
+      <c r="P19">
+        <v>0.8330570130030424</v>
+      </c>
+      <c r="Q19">
+        <v>1.360154065140762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.014003693008476</v>
+        <v>2.488617990962496</v>
       </c>
       <c r="C20">
-        <v>0.6302306017636283</v>
+        <v>0.6816467546657634</v>
       </c>
       <c r="D20">
-        <v>0.1408349433211953</v>
+        <v>0.1977108808132044</v>
       </c>
       <c r="E20">
-        <v>0.09467864176360052</v>
+        <v>0.1102363856460364</v>
       </c>
       <c r="F20">
-        <v>1.005466193832518</v>
+        <v>0.6801130842966856</v>
       </c>
       <c r="G20">
-        <v>0.0007814581774308116</v>
+        <v>0.3942659145130563</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.009028011135570502</v>
       </c>
       <c r="J20">
-        <v>0.08773119207175739</v>
+        <v>0.2865922865149031</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1931908891525964</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08651179219035043</v>
       </c>
       <c r="M20">
-        <v>0.8521030527854592</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6252374694202345</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.378296748080572</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.795013572806063</v>
+      </c>
+      <c r="P20">
+        <v>0.8344611024427877</v>
+      </c>
+      <c r="Q20">
+        <v>1.38621719866947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.402731471108552</v>
+        <v>2.799498136702425</v>
       </c>
       <c r="C21">
-        <v>0.7084533647277453</v>
+        <v>0.7611099948979643</v>
       </c>
       <c r="D21">
-        <v>0.1543973521428796</v>
+        <v>0.2167848552861074</v>
       </c>
       <c r="E21">
-        <v>0.102017621029578</v>
+        <v>0.1188189669039552</v>
       </c>
       <c r="F21">
-        <v>1.090190453975723</v>
+        <v>0.7304399639622545</v>
       </c>
       <c r="G21">
-        <v>0.0007759844501762447</v>
+        <v>0.4280109924529398</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01188748932126149</v>
       </c>
       <c r="J21">
-        <v>0.09284758701116402</v>
+        <v>0.2967437687419903</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1921992112462192</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.09123394029715115</v>
       </c>
       <c r="M21">
-        <v>0.9610363202385983</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5940099290462015</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.574465361634395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.894706015702134</v>
+      </c>
+      <c r="P21">
+        <v>0.8393084232832422</v>
+      </c>
+      <c r="Q21">
+        <v>1.479374386108333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.65842046613767</v>
+        <v>3.006217693810413</v>
       </c>
       <c r="C22">
-        <v>0.7597842133572783</v>
+        <v>0.810576981456876</v>
       </c>
       <c r="D22">
-        <v>0.1633823560792393</v>
+        <v>0.2291936525435005</v>
       </c>
       <c r="E22">
-        <v>0.1069547036514464</v>
+        <v>0.1245481477145916</v>
       </c>
       <c r="F22">
-        <v>1.147949200474088</v>
+        <v>0.7658116797279746</v>
       </c>
       <c r="G22">
-        <v>0.0007724686997012183</v>
+        <v>0.4520603246365766</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01371583880152283</v>
       </c>
       <c r="J22">
-        <v>0.09638455472549623</v>
+        <v>0.3044454871157996</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1927866693135165</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09453864233669407</v>
       </c>
       <c r="M22">
-        <v>1.032830415122234</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5748702036708693</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.70916754242424</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.95993907452673</v>
+      </c>
+      <c r="P22">
+        <v>0.8417257069139481</v>
+      </c>
+      <c r="Q22">
+        <v>1.546714460919958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.521790030237696</v>
+        <v>2.899458016497022</v>
       </c>
       <c r="C23">
-        <v>0.7323664270095378</v>
+        <v>0.7815051537565125</v>
       </c>
       <c r="D23">
-        <v>0.1585751791469221</v>
+        <v>0.2223026587615351</v>
       </c>
       <c r="E23">
-        <v>0.1043061552053182</v>
+        <v>0.1214347787619161</v>
       </c>
       <c r="F23">
-        <v>1.1168914631955</v>
+        <v>0.7481793893390289</v>
       </c>
       <c r="G23">
-        <v>0.0007743396956990132</v>
+        <v>0.4403636325500315</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0124678998611687</v>
       </c>
       <c r="J23">
-        <v>0.09447823374789266</v>
+        <v>0.3009068883267929</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1932433939891176</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09280157832039748</v>
       </c>
       <c r="M23">
-        <v>0.9944529111292226</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5849651108595495</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.636645920081321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.9249429086636027</v>
+      </c>
+      <c r="P23">
+        <v>0.8387997666220315</v>
+      </c>
+      <c r="Q23">
+        <v>1.514386529624545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.007674469176038</v>
+        <v>2.488961584363892</v>
       </c>
       <c r="C24">
-        <v>0.6289550523767957</v>
+        <v>0.6763133584617265</v>
       </c>
       <c r="D24">
-        <v>0.1406151838663874</v>
+        <v>0.1970205123860751</v>
       </c>
       <c r="E24">
-        <v>0.09456091991210513</v>
+        <v>0.1100371015790174</v>
       </c>
       <c r="F24">
-        <v>1.004119019860553</v>
+        <v>0.6813774312536225</v>
       </c>
       <c r="G24">
-        <v>0.0007815487298845382</v>
+        <v>0.3955808849649145</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.008570457442768742</v>
       </c>
       <c r="J24">
-        <v>0.08765063144071661</v>
+        <v>0.2873749969590875</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1944570630705869</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.08650404622635222</v>
       </c>
       <c r="M24">
-        <v>0.8503316963856022</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6257683888136043</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.375192708003539</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.7931460491744886</v>
+      </c>
+      <c r="P24">
+        <v>0.8320564680616229</v>
+      </c>
+      <c r="Q24">
+        <v>1.390638001386179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.458715738091939</v>
+        <v>2.045276760900379</v>
       </c>
       <c r="C25">
-        <v>0.5180634434922524</v>
+        <v>0.5637997667524246</v>
       </c>
       <c r="D25">
-        <v>0.1217037355232691</v>
+        <v>0.17053221761374</v>
       </c>
       <c r="E25">
-        <v>0.08458978617406387</v>
+        <v>0.09837486667166573</v>
       </c>
       <c r="F25">
-        <v>0.8915466773655254</v>
+        <v>0.6135291490408363</v>
       </c>
       <c r="G25">
-        <v>0.0007896099034454485</v>
+        <v>0.3501272972791583</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.005208457391582932</v>
       </c>
       <c r="J25">
-        <v>0.0810294124981894</v>
+        <v>0.2744901497840715</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1973559138436443</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.08039156387820157</v>
       </c>
       <c r="M25">
-        <v>0.697001263991929</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6748342506780673</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.117820660686903</v>
+        <v>0.6518128514714974</v>
+      </c>
+      <c r="P25">
+        <v>0.8282744004396179</v>
+      </c>
+      <c r="Q25">
+        <v>1.266752899088118</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.725919481704324</v>
+        <v>1.68896379124746</v>
       </c>
       <c r="C2">
-        <v>0.4752737293524945</v>
+        <v>0.496745223293118</v>
       </c>
       <c r="D2">
-        <v>0.1510169648101254</v>
+        <v>0.1535251748797464</v>
       </c>
       <c r="E2">
-        <v>0.09016912606985983</v>
+        <v>0.09044884815732956</v>
       </c>
       <c r="F2">
-        <v>0.5699831807898121</v>
+        <v>0.5560478516750749</v>
       </c>
       <c r="G2">
-        <v>0.3216791457736505</v>
+        <v>0.2909391592600841</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.002760420065184732</v>
+        <v>0.002919052072105188</v>
       </c>
       <c r="J2">
-        <v>0.2678106117715799</v>
+        <v>0.3027675637045135</v>
       </c>
       <c r="K2">
-        <v>0.202709525415905</v>
+        <v>0.1917682348355179</v>
       </c>
       <c r="L2">
-        <v>0.07651319146040336</v>
+        <v>0.121190658144565</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.03709720210777689</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.07588891105725537</v>
       </c>
       <c r="O2">
-        <v>0.5478537703337452</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8247665304621208</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.192029053222186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5497063304884193</v>
+      </c>
+      <c r="R2">
+        <v>0.8382203971313089</v>
+      </c>
+      <c r="S2">
+        <v>1.152860600475279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.503741265680162</v>
+        <v>1.476902099347484</v>
       </c>
       <c r="C3">
-        <v>0.4191686906947325</v>
+        <v>0.4331766824737429</v>
       </c>
       <c r="D3">
-        <v>0.1384646181367799</v>
+        <v>0.1404662363913189</v>
       </c>
       <c r="E3">
-        <v>0.08493132807753057</v>
+        <v>0.08515956247019929</v>
       </c>
       <c r="F3">
-        <v>0.5403292959516079</v>
+        <v>0.5289954780918507</v>
       </c>
       <c r="G3">
-        <v>0.3018489801349418</v>
+        <v>0.2735734534844951</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001729295590019664</v>
+        <v>0.00196385656048248</v>
       </c>
       <c r="J3">
-        <v>0.2631704472051695</v>
+        <v>0.2972708880192627</v>
       </c>
       <c r="K3">
-        <v>0.2058940058802552</v>
+        <v>0.1958157185212581</v>
       </c>
       <c r="L3">
-        <v>0.07411353025307221</v>
+        <v>0.1262248299595381</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03618893635163278</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.07359869188161028</v>
       </c>
       <c r="O3">
-        <v>0.4778271236514442</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8260510391108156</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.13996523316132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4793561298359776</v>
+      </c>
+      <c r="R3">
+        <v>0.8333842375266087</v>
+      </c>
+      <c r="S3">
+        <v>1.107882201539752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.366722373508992</v>
+        <v>1.345862956425293</v>
       </c>
       <c r="C4">
-        <v>0.3849188910445775</v>
+        <v>0.3945036312019283</v>
       </c>
       <c r="D4">
-        <v>0.1309168725114205</v>
+        <v>0.1326266231824462</v>
       </c>
       <c r="E4">
-        <v>0.08183939212500846</v>
+        <v>0.08204037741701597</v>
       </c>
       <c r="F4">
-        <v>0.5228558491536504</v>
+        <v>0.5129904091562594</v>
       </c>
       <c r="G4">
-        <v>0.2901323134440261</v>
+        <v>0.2633579384824074</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001246033799708446</v>
+        <v>0.001503494496669422</v>
       </c>
       <c r="J4">
-        <v>0.2606407006078726</v>
+        <v>0.2940255749746328</v>
       </c>
       <c r="K4">
-        <v>0.2081387517563371</v>
+        <v>0.1985133433058799</v>
       </c>
       <c r="L4">
-        <v>0.07277112952895237</v>
+        <v>0.1294744452481318</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03613751244976449</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0723212928169481</v>
       </c>
       <c r="O4">
-        <v>0.4349084520123156</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8276488887554692</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.109630981723456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4362251744498877</v>
+      </c>
+      <c r="R4">
+        <v>0.8312858787549686</v>
+      </c>
+      <c r="S4">
+        <v>1.08152662859338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.309869760400744</v>
+        <v>1.291392389285477</v>
       </c>
       <c r="C5">
-        <v>0.3716454394501341</v>
+        <v>0.3794907359998945</v>
       </c>
       <c r="D5">
-        <v>0.1279414501084659</v>
+        <v>0.1295380518726859</v>
       </c>
       <c r="E5">
-        <v>0.08061924647381602</v>
+        <v>0.08081037392821955</v>
       </c>
       <c r="F5">
-        <v>0.5155717071617545</v>
+        <v>0.5062745755744089</v>
       </c>
       <c r="G5">
-        <v>0.2851626582417737</v>
+        <v>0.2590030337215765</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001144298183432646</v>
+        <v>0.001418195926673249</v>
       </c>
       <c r="J5">
-        <v>0.2595311726364642</v>
+        <v>0.2925728429945167</v>
       </c>
       <c r="K5">
-        <v>0.2089137763813493</v>
+        <v>0.1994618163210387</v>
       </c>
       <c r="L5">
-        <v>0.07224446922478478</v>
+        <v>0.1307241969088864</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03620232625716646</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.07182058216745091</v>
       </c>
       <c r="O5">
-        <v>0.4174750621616283</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.828834672378612</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.096688999897182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4187027989753034</v>
+      </c>
+      <c r="R5">
+        <v>0.8309970242338025</v>
+      </c>
+      <c r="S5">
+        <v>1.070124109342032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.29936450477004</v>
+        <v>1.281281465968391</v>
       </c>
       <c r="C6">
-        <v>0.3702278620550885</v>
+        <v>0.3778155984221883</v>
       </c>
       <c r="D6">
-        <v>0.1275256445282764</v>
+        <v>0.1291049843239023</v>
       </c>
       <c r="E6">
-        <v>0.08043063453458643</v>
+        <v>0.08062037078286011</v>
       </c>
       <c r="F6">
-        <v>0.5139574504978057</v>
+        <v>0.5047543880827945</v>
       </c>
       <c r="G6">
-        <v>0.2839722678119543</v>
+        <v>0.2579225700266647</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001209946633556669</v>
+        <v>0.001503254520702768</v>
       </c>
       <c r="J6">
-        <v>0.2591606867584417</v>
+        <v>0.292135851843021</v>
       </c>
       <c r="K6">
-        <v>0.2087902522804868</v>
+        <v>0.1993755647773181</v>
       </c>
       <c r="L6">
-        <v>0.07214521566116261</v>
+        <v>0.1307951665179132</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03617095180043783</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.07172558087775727</v>
       </c>
       <c r="O6">
-        <v>0.4146309214011765</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8294574613720087</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.093375452271104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.415844224507147</v>
+      </c>
+      <c r="R6">
+        <v>0.8313953380381776</v>
+      </c>
+      <c r="S6">
+        <v>1.067071409184763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.363063201483328</v>
+        <v>1.341347167483008</v>
       </c>
       <c r="C7">
-        <v>0.3868859004159617</v>
+        <v>0.3959192069436597</v>
       </c>
       <c r="D7">
-        <v>0.1310842752336896</v>
+        <v>0.1329655533407959</v>
       </c>
       <c r="E7">
-        <v>0.08185624648247725</v>
+        <v>0.08210556604488417</v>
       </c>
       <c r="F7">
-        <v>0.5216225899007867</v>
+        <v>0.5110301087636273</v>
       </c>
       <c r="G7">
-        <v>0.2890490729519755</v>
+        <v>0.2650299974401378</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.001449451852155725</v>
+        <v>0.001748649399803348</v>
       </c>
       <c r="J7">
-        <v>0.2601043462893244</v>
+        <v>0.2895144750773184</v>
       </c>
       <c r="K7">
-        <v>0.2074492020744181</v>
+        <v>0.1976323078850921</v>
       </c>
       <c r="L7">
-        <v>0.0727266433528051</v>
+        <v>0.129001689324161</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03594315547695803</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.07227911652437058</v>
       </c>
       <c r="O7">
-        <v>0.434809170134173</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8288081243937384</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.10620975108688</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4359017784357277</v>
+      </c>
+      <c r="R7">
+        <v>0.8329375412084161</v>
+      </c>
+      <c r="S7">
+        <v>1.076009425849563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.645566116322726</v>
+        <v>1.609161641594795</v>
       </c>
       <c r="C8">
-        <v>0.4587505868485664</v>
+        <v>0.475683902266212</v>
       </c>
       <c r="D8">
-        <v>0.1469302695274166</v>
+        <v>0.1498330052686327</v>
       </c>
       <c r="E8">
-        <v>0.08838095662413892</v>
+        <v>0.08880311448384504</v>
       </c>
       <c r="F8">
-        <v>0.5580975739842913</v>
+        <v>0.5426362480188018</v>
       </c>
       <c r="G8">
-        <v>0.3133952298373259</v>
+        <v>0.292677487903461</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.002616496816109759</v>
+        <v>0.002850858552749358</v>
       </c>
       <c r="J8">
-        <v>0.2654541055526991</v>
+        <v>0.2872299724134209</v>
       </c>
       <c r="K8">
-        <v>0.2028244610889374</v>
+        <v>0.1915193174013616</v>
       </c>
       <c r="L8">
-        <v>0.07560872821082398</v>
+        <v>0.1221085851097428</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03623735952984397</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.07502960165217587</v>
       </c>
       <c r="O8">
-        <v>0.5238687377450901</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8266094065663694</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.169428001830568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.524859873841578</v>
+      </c>
+      <c r="R8">
+        <v>0.8396127815196337</v>
+      </c>
+      <c r="S8">
+        <v>1.125708483903168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.200211149163977</v>
+        <v>2.136293821804031</v>
       </c>
       <c r="C9">
-        <v>0.5976441085180113</v>
+        <v>0.6333912356934945</v>
       </c>
       <c r="D9">
-        <v>0.1789823887537096</v>
+        <v>0.1834173691970307</v>
       </c>
       <c r="E9">
-        <v>0.1021642504703024</v>
+        <v>0.1027839833222792</v>
       </c>
       <c r="F9">
-        <v>0.637907312734356</v>
+        <v>0.614486033129694</v>
       </c>
       <c r="G9">
-        <v>0.3669213259511679</v>
+        <v>0.3425550809101452</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.005895248744203663</v>
+        <v>0.005729720053691878</v>
       </c>
       <c r="J9">
-        <v>0.2795475280499744</v>
+        <v>0.298764805542703</v>
       </c>
       <c r="K9">
-        <v>0.197416809750063</v>
+        <v>0.1832923818066128</v>
       </c>
       <c r="L9">
-        <v>0.08243192778647312</v>
+        <v>0.1108649060042151</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.04139723804343909</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.08156795936476868</v>
       </c>
       <c r="O9">
-        <v>0.6990907143573608</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8268531304968505</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.313133767099885</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7005601305521907</v>
+      </c>
+      <c r="R9">
+        <v>0.855948638736578</v>
+      </c>
+      <c r="S9">
+        <v>1.247498216731884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.603734042570807</v>
+        <v>2.51287677056763</v>
       </c>
       <c r="C10">
-        <v>0.7023331767670129</v>
+        <v>0.7490146846464825</v>
       </c>
       <c r="D10">
-        <v>0.203585676615063</v>
+        <v>0.2102716118055099</v>
       </c>
       <c r="E10">
-        <v>0.1130404211927925</v>
+        <v>0.1141140693053337</v>
       </c>
       <c r="F10">
-        <v>0.7004106981487368</v>
+        <v>0.6660351032800662</v>
       </c>
       <c r="G10">
-        <v>0.4086204939230527</v>
+        <v>0.3981882763179101</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.009353204642490454</v>
+        <v>0.008728605567164927</v>
       </c>
       <c r="J10">
-        <v>0.2914767797698374</v>
+        <v>0.2861911789200065</v>
       </c>
       <c r="K10">
-        <v>0.1947519795459769</v>
+        <v>0.1769272493251854</v>
       </c>
       <c r="L10">
-        <v>0.08819675855438192</v>
+        <v>0.1028542993498469</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.04710486013601134</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.08712166395474696</v>
       </c>
       <c r="O10">
-        <v>0.8286964463824802</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8321770460148628</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.42700209454236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8290209482303865</v>
+      </c>
+      <c r="R10">
+        <v>0.8764902623825606</v>
+      </c>
+      <c r="S10">
+        <v>1.330587705693773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.781922904642386</v>
+        <v>2.668906429351637</v>
       </c>
       <c r="C11">
-        <v>0.7540418400028557</v>
+        <v>0.7993648751458977</v>
       </c>
       <c r="D11">
-        <v>0.2153580829472048</v>
+        <v>0.2249454035506631</v>
       </c>
       <c r="E11">
-        <v>0.1182246803410365</v>
+        <v>0.1200270605646878</v>
       </c>
       <c r="F11">
-        <v>0.7280888723082768</v>
+        <v>0.6808528022228515</v>
       </c>
       <c r="G11">
-        <v>0.4266531006592658</v>
+        <v>0.4533707891658878</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01149530436046753</v>
+        <v>0.01064521525024809</v>
       </c>
       <c r="J11">
-        <v>0.2965026119533292</v>
+        <v>0.2464100456767682</v>
       </c>
       <c r="K11">
-        <v>0.1928220009980741</v>
+        <v>0.1711869701105542</v>
       </c>
       <c r="L11">
-        <v>0.09094923926823384</v>
+        <v>0.09838657961896224</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.04886477334411765</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.08979782543865156</v>
       </c>
       <c r="O11">
-        <v>0.8881201676007393</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8378277592162533</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.475967725146234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.8854302245666403</v>
+      </c>
+      <c r="R11">
+        <v>0.8949267772579077</v>
+      </c>
+      <c r="S11">
+        <v>1.343054953002593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.851943094134299</v>
+        <v>2.729187668258533</v>
       </c>
       <c r="C12">
-        <v>0.771762385286479</v>
+        <v>0.815630789324814</v>
       </c>
       <c r="D12">
-        <v>0.2196700467194148</v>
+        <v>0.2306033416174671</v>
       </c>
       <c r="E12">
-        <v>0.1201863261790805</v>
+        <v>0.1223340632673171</v>
       </c>
       <c r="F12">
-        <v>0.7397327980082054</v>
+        <v>0.6865714587364664</v>
       </c>
       <c r="G12">
-        <v>0.4344852171929858</v>
+        <v>0.4798788237923901</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01217356232413103</v>
+        <v>0.01117892842335966</v>
       </c>
       <c r="J12">
-        <v>0.2989245346992249</v>
+        <v>0.2294073167850357</v>
       </c>
       <c r="K12">
-        <v>0.1927476800081465</v>
+        <v>0.1693284672693736</v>
       </c>
       <c r="L12">
-        <v>0.09205261842657819</v>
+        <v>0.09684760047180418</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.0496942936224869</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.09087486802201283</v>
       </c>
       <c r="O12">
-        <v>0.9105494738740774</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8390058339090558</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.497722502009623</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.9063868321757482</v>
+      </c>
+      <c r="R12">
+        <v>0.9016345372160544</v>
+      </c>
+      <c r="S12">
+        <v>1.347962971203657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.837391048239283</v>
+        <v>2.716783876186526</v>
       </c>
       <c r="C13">
-        <v>0.7675524356155847</v>
+        <v>0.811754335060499</v>
       </c>
       <c r="D13">
-        <v>0.2187029516727961</v>
+        <v>0.2293334576188784</v>
       </c>
       <c r="E13">
-        <v>0.1197566450056584</v>
+        <v>0.1218266455881043</v>
       </c>
       <c r="F13">
-        <v>0.7374165551514835</v>
+        <v>0.6855709488492963</v>
       </c>
       <c r="G13">
-        <v>0.4329718728335905</v>
+        <v>0.4741325743333391</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01198856315316466</v>
+        <v>0.01101611959111448</v>
       </c>
       <c r="J13">
-        <v>0.2984903741893703</v>
+        <v>0.2332016771647361</v>
       </c>
       <c r="K13">
-        <v>0.1928802994290386</v>
+        <v>0.1698435969075085</v>
       </c>
       <c r="L13">
-        <v>0.09182004827610513</v>
+        <v>0.0972149309729744</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04956429696478892</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.09064781820526235</v>
       </c>
       <c r="O13">
-        <v>0.9056938938739165</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8385154681857045</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.493588075445444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.9018633235575066</v>
+      </c>
+      <c r="R13">
+        <v>0.8998931468118627</v>
+      </c>
+      <c r="S13">
+        <v>1.347557461821339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.787907715209769</v>
+        <v>2.674113196330097</v>
       </c>
       <c r="C14">
-        <v>0.7553325408124749</v>
+        <v>0.8005451418054292</v>
       </c>
       <c r="D14">
-        <v>0.2156964638035532</v>
+        <v>0.2253888054118818</v>
       </c>
       <c r="E14">
-        <v>0.1183829751955194</v>
+        <v>0.1202122723387298</v>
       </c>
       <c r="F14">
-        <v>0.7291279704702305</v>
+        <v>0.6814225996179744</v>
       </c>
       <c r="G14">
-        <v>0.4273709910529959</v>
+        <v>0.4555305124232802</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.0115342208528828</v>
+        <v>0.01066841504208327</v>
       </c>
       <c r="J14">
-        <v>0.2967389392574376</v>
+        <v>0.2450744669750193</v>
       </c>
       <c r="K14">
-        <v>0.1928653627679928</v>
+        <v>0.1710834039996136</v>
       </c>
       <c r="L14">
-        <v>0.09104213501526459</v>
+        <v>0.09827558851269913</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04895363120666474</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.08988848786168546</v>
       </c>
       <c r="O14">
-        <v>0.8899547540496471</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.837824184865454</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.477991059829179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.8871503248957069</v>
+      </c>
+      <c r="R14">
+        <v>0.895352238273162</v>
+      </c>
+      <c r="S14">
+        <v>1.343739213331503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.756557231783518</v>
+        <v>2.646777958561813</v>
       </c>
       <c r="C15">
-        <v>0.7486250468712399</v>
+        <v>0.7943834054275385</v>
       </c>
       <c r="D15">
-        <v>0.2139321464151323</v>
+        <v>0.2230857081514586</v>
       </c>
       <c r="E15">
-        <v>0.1175569390783657</v>
+        <v>0.119248357851319</v>
       </c>
       <c r="F15">
-        <v>0.7236814258579614</v>
+        <v>0.6783881258343243</v>
       </c>
       <c r="G15">
-        <v>0.423603915982298</v>
+        <v>0.4444177882020881</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01133846501529234</v>
+        <v>0.01055564096915695</v>
       </c>
       <c r="J15">
-        <v>0.295496870801145</v>
+        <v>0.2519651669895566</v>
       </c>
       <c r="K15">
-        <v>0.1926292624091559</v>
+        <v>0.1716047381038877</v>
       </c>
       <c r="L15">
-        <v>0.09055690728204979</v>
+        <v>0.09885022627849516</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04848229320763764</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.08941505100921887</v>
       </c>
       <c r="O15">
-        <v>0.8803652529864365</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8378719230024387</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.467369729130127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.8781460337791955</v>
+      </c>
+      <c r="R15">
+        <v>0.8931898532011502</v>
+      </c>
+      <c r="S15">
+        <v>1.340001746952481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.583393482647011</v>
+        <v>2.493924912829698</v>
       </c>
       <c r="C16">
-        <v>0.7054127644557013</v>
+        <v>0.7524084033933889</v>
       </c>
       <c r="D16">
-        <v>0.2034307753095987</v>
+        <v>0.2099760854138566</v>
       </c>
       <c r="E16">
-        <v>0.1128037581529284</v>
+        <v>0.113840709809736</v>
       </c>
       <c r="F16">
-        <v>0.6953184359762048</v>
+        <v>0.6617264073700753</v>
       </c>
       <c r="G16">
-        <v>0.4044929030291229</v>
+        <v>0.3922072834985215</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.009817971727324348</v>
+        <v>0.009358381465265353</v>
       </c>
       <c r="J16">
-        <v>0.2896537051957182</v>
+        <v>0.2870198351629227</v>
       </c>
       <c r="K16">
-        <v>0.19289895070483</v>
+        <v>0.1754762622170567</v>
       </c>
       <c r="L16">
-        <v>0.08791454228547479</v>
+        <v>0.1025046461485513</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04624548205026535</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.08684512391353394</v>
       </c>
       <c r="O16">
-        <v>0.8252032528162943</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8355824562902967</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.414419966081624</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.825685131619494</v>
+      </c>
+      <c r="R16">
+        <v>0.8794808069878428</v>
+      </c>
+      <c r="S16">
+        <v>1.320355385839378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.477093494404016</v>
+        <v>2.39787232435026</v>
       </c>
       <c r="C17">
-        <v>0.6789907745238111</v>
+        <v>0.7253205052646763</v>
       </c>
       <c r="D17">
-        <v>0.1970481443828191</v>
+        <v>0.2024091548657481</v>
       </c>
       <c r="E17">
-        <v>0.1099351003288973</v>
+        <v>0.1106862762940146</v>
       </c>
       <c r="F17">
-        <v>0.6782265075851655</v>
+        <v>0.6500665045105549</v>
       </c>
       <c r="G17">
-        <v>0.3929774480386783</v>
+        <v>0.3675212739667444</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.008956433533602315</v>
+        <v>0.008670513409465563</v>
       </c>
       <c r="J17">
-        <v>0.2861927525972447</v>
+        <v>0.3024484934305605</v>
       </c>
       <c r="K17">
-        <v>0.1931777312437006</v>
+        <v>0.1774728541359671</v>
       </c>
       <c r="L17">
-        <v>0.08634393559082554</v>
+        <v>0.1046640277713848</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04479904603406659</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.08532318461230659</v>
       </c>
       <c r="O17">
-        <v>0.7914299027141354</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8344379627067013</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.382635707801484</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.7930157456441762</v>
+      </c>
+      <c r="R17">
+        <v>0.8726073825135359</v>
+      </c>
+      <c r="S17">
+        <v>1.304018529481397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.418544456381369</v>
+        <v>2.344415145851031</v>
       </c>
       <c r="C18">
-        <v>0.6618697010295875</v>
+        <v>0.7072096557460554</v>
       </c>
       <c r="D18">
-        <v>0.1932134938435865</v>
+        <v>0.1980326529270826</v>
       </c>
       <c r="E18">
-        <v>0.1082721162214142</v>
+        <v>0.1088984629809282</v>
       </c>
       <c r="F18">
-        <v>0.6695045261663566</v>
+        <v>0.6438378886078553</v>
       </c>
       <c r="G18">
-        <v>0.3873232272998877</v>
+        <v>0.3566165100366163</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.008265934676047415</v>
+        <v>0.008018132701373304</v>
       </c>
       <c r="J18">
-        <v>0.2847011593545119</v>
+        <v>0.3091441993385189</v>
       </c>
       <c r="K18">
-        <v>0.1939786511223431</v>
+        <v>0.1790368039997396</v>
       </c>
       <c r="L18">
-        <v>0.08549069815102683</v>
+        <v>0.1060766154191057</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.04416280952185403</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08449926951568898</v>
       </c>
       <c r="O18">
-        <v>0.7719099341466418</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8327439260543912</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.367453104442518</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.7739368402591111</v>
+      </c>
+      <c r="R18">
+        <v>0.8679695964303704</v>
+      </c>
+      <c r="S18">
+        <v>1.295880894204714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.396694491066114</v>
+        <v>2.324183562572557</v>
       </c>
       <c r="C19">
-        <v>0.6575843005898605</v>
+        <v>0.7025881144129471</v>
       </c>
       <c r="D19">
-        <v>0.1920611316622995</v>
+        <v>0.1967236946121886</v>
       </c>
       <c r="E19">
-        <v>0.107734856652808</v>
+        <v>0.1083259090703521</v>
       </c>
       <c r="F19">
-        <v>0.6657983952145514</v>
+        <v>0.6408885448553079</v>
       </c>
       <c r="G19">
-        <v>0.384730101478425</v>
+        <v>0.3526409934178218</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.008202666418837268</v>
+        <v>0.008006859780377518</v>
       </c>
       <c r="J19">
-        <v>0.2838525631973567</v>
+        <v>0.3105977107503577</v>
       </c>
       <c r="K19">
-        <v>0.1937935507635906</v>
+        <v>0.1791197383823224</v>
       </c>
       <c r="L19">
-        <v>0.08517995685631519</v>
+        <v>0.1063908441367847</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0437783784121617</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.08419875620120365</v>
       </c>
       <c r="O19">
-        <v>0.7653947900706939</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8330570130030424</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.360154065140762</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.7675402376641998</v>
+      </c>
+      <c r="R19">
+        <v>0.8674232937106439</v>
+      </c>
+      <c r="S19">
+        <v>1.290739349020441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.488617990962496</v>
+        <v>2.40838438367166</v>
       </c>
       <c r="C20">
-        <v>0.6816467546657634</v>
+        <v>0.7280913775357476</v>
       </c>
       <c r="D20">
-        <v>0.1977108808132044</v>
+        <v>0.2031825868298114</v>
       </c>
       <c r="E20">
-        <v>0.1102363856460364</v>
+        <v>0.1110137532374758</v>
       </c>
       <c r="F20">
-        <v>0.6801130842966856</v>
+        <v>0.6514372454636259</v>
       </c>
       <c r="G20">
-        <v>0.3942659145130563</v>
+        <v>0.369962379589083</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.009028011135570502</v>
+        <v>0.008720229861389761</v>
       </c>
       <c r="J20">
-        <v>0.2865922865149031</v>
+        <v>0.3011049045394287</v>
       </c>
       <c r="K20">
-        <v>0.1931908891525964</v>
+        <v>0.1773172284418081</v>
       </c>
       <c r="L20">
-        <v>0.08651179219035043</v>
+        <v>0.1044533367232194</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.04497232196369083</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.08548570359197782</v>
       </c>
       <c r="O20">
-        <v>0.795013572806063</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8344611024427877</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.38621719866947</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.7965019415444132</v>
+      </c>
+      <c r="R20">
+        <v>0.873187595882996</v>
+      </c>
+      <c r="S20">
+        <v>1.306131880191884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.799498136702425</v>
+        <v>2.680394109198176</v>
       </c>
       <c r="C21">
-        <v>0.7611099948979643</v>
+        <v>0.8038013020098447</v>
       </c>
       <c r="D21">
-        <v>0.2167848552861074</v>
+        <v>0.2274067070518271</v>
       </c>
       <c r="E21">
-        <v>0.1188189669039552</v>
+        <v>0.1209009217592367</v>
       </c>
       <c r="F21">
-        <v>0.7304399639622545</v>
+        <v>0.6788608697225982</v>
       </c>
       <c r="G21">
-        <v>0.4280109924529398</v>
+        <v>0.4709840516888306</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01188748932126149</v>
+        <v>0.01102730272319263</v>
       </c>
       <c r="J21">
-        <v>0.2967437687419903</v>
+        <v>0.2305470632940967</v>
       </c>
       <c r="K21">
-        <v>0.1921992112462192</v>
+        <v>0.1693806858751437</v>
       </c>
       <c r="L21">
-        <v>0.09123394029715115</v>
+        <v>0.09751771359083072</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.04855089569588245</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.09008336463853084</v>
       </c>
       <c r="O21">
-        <v>0.894706015702134</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8393084232832422</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.479374386108333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.890746116408117</v>
+      </c>
+      <c r="R21">
+        <v>0.9000486683970195</v>
+      </c>
+      <c r="S21">
+        <v>1.334114841366272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.006217693810413</v>
+        <v>2.859557330269013</v>
       </c>
       <c r="C22">
-        <v>0.810576981456876</v>
+        <v>0.8496658962807828</v>
       </c>
       <c r="D22">
-        <v>0.2291936525435005</v>
+        <v>0.2435736920065352</v>
       </c>
       <c r="E22">
-        <v>0.1245481477145916</v>
+        <v>0.1275901454595427</v>
       </c>
       <c r="F22">
-        <v>0.7658116797279746</v>
+        <v>0.6976773527540558</v>
       </c>
       <c r="G22">
-        <v>0.4520603246365766</v>
+        <v>0.5480755412824863</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01371583880152283</v>
+        <v>0.0123691025185142</v>
       </c>
       <c r="J22">
-        <v>0.3044454871157996</v>
+        <v>0.1904966550252283</v>
       </c>
       <c r="K22">
-        <v>0.1927866693135165</v>
+        <v>0.1649098687404731</v>
       </c>
       <c r="L22">
-        <v>0.09453864233669407</v>
+        <v>0.09343770144375441</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.05142633297658961</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.09330835092714551</v>
       </c>
       <c r="O22">
-        <v>0.95993907452673</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8417257069139481</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.546714460919958</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.9519119802567388</v>
+      </c>
+      <c r="R22">
+        <v>0.9180246857130356</v>
+      </c>
+      <c r="S22">
+        <v>1.354448435300668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.899458016497022</v>
+        <v>2.769993290045079</v>
       </c>
       <c r="C23">
-        <v>0.7815051537565125</v>
+        <v>0.8241192534629818</v>
       </c>
       <c r="D23">
-        <v>0.2223026587615351</v>
+        <v>0.2341730135129865</v>
       </c>
       <c r="E23">
-        <v>0.1214347787619161</v>
+        <v>0.1238253457920173</v>
       </c>
       <c r="F23">
-        <v>0.7481793893390289</v>
+        <v>0.6908614553758241</v>
       </c>
       <c r="G23">
-        <v>0.4403636325500315</v>
+        <v>0.4992952717492045</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.0124678998611687</v>
+        <v>0.01133481760960375</v>
       </c>
       <c r="J23">
-        <v>0.3009068883267929</v>
+        <v>0.218329830389095</v>
       </c>
       <c r="K23">
-        <v>0.1932433939891176</v>
+        <v>0.1685244402419173</v>
       </c>
       <c r="L23">
-        <v>0.09280157832039748</v>
+        <v>0.09599360632439868</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.05041410723042361</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.09160751410645673</v>
       </c>
       <c r="O23">
-        <v>0.9249429086636027</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8387997666220315</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.514386529624545</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.919733286446025</v>
+      </c>
+      <c r="R23">
+        <v>0.9051201454359727</v>
+      </c>
+      <c r="S23">
+        <v>1.352766970474875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.488961584363892</v>
+        <v>2.409121215834887</v>
       </c>
       <c r="C24">
-        <v>0.6763133584617265</v>
+        <v>0.7224835375003806</v>
       </c>
       <c r="D24">
-        <v>0.1970205123860751</v>
+        <v>0.2024328068575869</v>
       </c>
       <c r="E24">
-        <v>0.1100371015790174</v>
+        <v>0.1108015479599693</v>
       </c>
       <c r="F24">
-        <v>0.6813774312536225</v>
+        <v>0.6528926172607186</v>
       </c>
       <c r="G24">
-        <v>0.3955808849649145</v>
+        <v>0.370721016599461</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.008570457442768742</v>
+        <v>0.008167541462540839</v>
       </c>
       <c r="J24">
-        <v>0.2873749969590875</v>
+        <v>0.3026338969860092</v>
       </c>
       <c r="K24">
-        <v>0.1944570630705869</v>
+        <v>0.1785484427157904</v>
       </c>
       <c r="L24">
-        <v>0.08650404622635222</v>
+        <v>0.1049733636064509</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.04535657495787859</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.08548016847575468</v>
       </c>
       <c r="O24">
-        <v>0.7931460491744886</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8320564680616229</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.390638001386179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.7946758927844257</v>
+      </c>
+      <c r="R24">
+        <v>0.8703431024521819</v>
+      </c>
+      <c r="S24">
+        <v>1.311026411194234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.045276760900379</v>
+        <v>1.990376937917915</v>
       </c>
       <c r="C25">
-        <v>0.5637997667524246</v>
+        <v>0.5954163513782476</v>
       </c>
       <c r="D25">
-        <v>0.17053221761374</v>
+        <v>0.1742975937553126</v>
       </c>
       <c r="E25">
-        <v>0.09837486667166573</v>
+        <v>0.098869063379869</v>
       </c>
       <c r="F25">
-        <v>0.6135291490408363</v>
+        <v>0.5934782060238177</v>
       </c>
       <c r="G25">
-        <v>0.3501272972791583</v>
+        <v>0.3228264565891976</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.005208457391582932</v>
+        <v>0.005268630777675476</v>
       </c>
       <c r="J25">
-        <v>0.2744901497840715</v>
+        <v>0.3000559806950491</v>
       </c>
       <c r="K25">
-        <v>0.1973559138436443</v>
+        <v>0.1844643168242115</v>
       </c>
       <c r="L25">
-        <v>0.08039156387820157</v>
+        <v>0.1134145813248839</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.03926436453944682</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.07960403916080594</v>
       </c>
       <c r="O25">
-        <v>0.6518128514714974</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8282744004396179</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.266752899088118</v>
+        <v>0.6535031116508918</v>
+      </c>
+      <c r="R25">
+        <v>0.8524144739532034</v>
+      </c>
+      <c r="S25">
+        <v>1.210617539253576</v>
       </c>
     </row>
   </sheetData>
